--- a/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,42</t>
+          <t>0,0; 12,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,58</t>
+          <t>1,27; 15,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,24</t>
+          <t>1,55; 10,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>12,51%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,41</t>
+          <t>8,72; 17,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 15,02</t>
+          <t>8,41; 17,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,54</t>
+          <t>9,64; 16,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,42</t>
+          <t>5,22; 16,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,58</t>
+          <t>4,07; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,24</t>
+          <t>5,36; 13,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,68</t>
+          <t>7,58; 18,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,9</t>
+          <t>8,47; 19,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,03</t>
+          <t>8,88; 16,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 15,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 16,18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 14,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,84</t>
+          <t>5,34; 15,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 15,48</t>
+          <t>3,65; 15,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,52</t>
+          <t>5,6; 13,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 18,56</t>
+          <t>7,23; 18,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,62</t>
+          <t>8,31; 19,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 16,52</t>
+          <t>9,4; 17,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,31</t>
+          <t>7,79; 15,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 16,18</t>
+          <t>7,99; 16,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,14</t>
+          <t>8,72; 14,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling fuera de su colegio</t>
+          <t>Menores que refieren que se han producido situaciones de cyberbulling fuera de su colegio</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,89</t>
+          <t>0; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,02</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,15</t>
+          <t>0; 0,89</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 18,1</t>
+          <t>0; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 19,59</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,19</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,64</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,3</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,38</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
